--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value272.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value272.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.5522731058819682</v>
+        <v>1.722773671150208</v>
       </c>
       <c r="B1">
-        <v>0.8404680019300036</v>
+        <v>1.953958868980408</v>
       </c>
       <c r="C1">
-        <v>1.902974988327859</v>
+        <v>2.009294509887695</v>
       </c>
       <c r="D1">
-        <v>3.077239847534491</v>
+        <v>2.605636835098267</v>
       </c>
       <c r="E1">
-        <v>2.199024507812373</v>
+        <v>3.100084781646729</v>
       </c>
     </row>
   </sheetData>
